--- a/dsalgo-project/target/test-classes/testData/Ds-algosign.xlsx
+++ b/dsalgo-project/target/test-classes/testData/Ds-algosign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\eclipse-workspace\dsalgo-project\src\test\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C59A7B-29F7-4932-9E9B-F0B150BE60E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9809D69-5460-4E55-BE22-B830CD31D45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="610" windowWidth="19420" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -80,13 +73,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -363,15 +356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -390,9 +384,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1A768685-C4BD-4A04-916B-DE226841793B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
